--- a/R/output/taxa_modeled_funs.xlsx
+++ b/R/output/taxa_modeled_funs.xlsx
@@ -1,469 +1,777 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mawha\Dropbox\Martone Lab\martone_calvert\R\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE538943-AB2E-472B-B6FA-209B9C8E6AB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2AFB4E1F-4553-4987-A671-DB4EBA7A59F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{339E8052-2054-47E5-BCBF-5B1EEE3815AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="taxa_modeled_funs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="141">
   <si>
     <t>taxon</t>
   </si>
   <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>crust</t>
+  </si>
+  <si>
+    <t>Fucus distichus</t>
+  </si>
+  <si>
+    <t>blade</t>
+  </si>
+  <si>
+    <t>turf</t>
+  </si>
+  <si>
+    <t>Endocladia muricata</t>
+  </si>
+  <si>
+    <t>Chamberlainium tumidum</t>
+  </si>
+  <si>
+    <t>Halosaccion glandiforme</t>
+  </si>
+  <si>
+    <t>Alaria marginata</t>
+  </si>
+  <si>
+    <t>Anemone</t>
+  </si>
+  <si>
+    <t>coralline crust</t>
+  </si>
+  <si>
+    <t>Plocamium violaceum</t>
+  </si>
+  <si>
+    <t>Mazzaella oregona</t>
+  </si>
+  <si>
+    <t>Microcladia borealis</t>
+  </si>
+  <si>
+    <t>Callithamnion pikeanum</t>
+  </si>
+  <si>
+    <t>Cryptosiphonia woodii</t>
+  </si>
+  <si>
+    <t>Gloiopeltis furcata</t>
+  </si>
+  <si>
+    <t>Leathesia marina</t>
+  </si>
+  <si>
+    <t>Polyneura latissima</t>
+  </si>
+  <si>
+    <t>Mazzaella splendens</t>
+  </si>
+  <si>
+    <t>Neorhodomela larix</t>
+  </si>
+  <si>
+    <t>Ptilota filicina</t>
+  </si>
+  <si>
+    <t>Savoiea robusta</t>
+  </si>
+  <si>
+    <t>Odonthalia floccosa</t>
+  </si>
+  <si>
+    <t>Elachista fucicola</t>
+  </si>
+  <si>
+    <t>Cladophora columbiana</t>
+  </si>
+  <si>
+    <t>Lithothamnion phymatodeum</t>
+  </si>
+  <si>
+    <t>Ralfsioid</t>
+  </si>
+  <si>
+    <t>Polysiphonia</t>
+  </si>
+  <si>
+    <t>Hedophyllum sessile</t>
+  </si>
+  <si>
+    <t>Ceramium pacificum</t>
+  </si>
+  <si>
+    <t>Neopolyporolithon reclinatum</t>
+  </si>
+  <si>
+    <t>Neogastroclonium subarticulatum</t>
+  </si>
+  <si>
+    <t>Mazzaella parvula</t>
+  </si>
+  <si>
+    <t>Farlowia mollis</t>
+  </si>
+  <si>
+    <t>Egregia menziesii</t>
+  </si>
+  <si>
+    <t>Dilsea californica</t>
+  </si>
+  <si>
+    <t>Palmaria hecatensis</t>
+  </si>
+  <si>
+    <t>Codium fragile</t>
+  </si>
+  <si>
+    <t>Nemalion helminthoides</t>
+  </si>
+  <si>
+    <t>Tube worms</t>
+  </si>
+  <si>
+    <t>Analipus japonicus</t>
+  </si>
+  <si>
+    <t>Bryozoan</t>
+  </si>
+  <si>
+    <t>Schizymenia pacifica</t>
+  </si>
+  <si>
+    <t>Tunicata/Porifera</t>
+  </si>
+  <si>
+    <t>Scytosiphon lomentaria</t>
+  </si>
+  <si>
+    <t>Codium setchellii</t>
+  </si>
+  <si>
+    <t>Hedophyllum nigripes</t>
+  </si>
+  <si>
+    <t>Costaria costata</t>
+  </si>
+  <si>
+    <t>Ectocarpus commensalis</t>
+  </si>
+  <si>
+    <t>Osmundea spectabilis</t>
+  </si>
+  <si>
+    <t>Palmaria mollis</t>
+  </si>
+  <si>
+    <t>Dactylosiphon bullosus</t>
+  </si>
+  <si>
+    <t>Scytosiphon dotyi</t>
+  </si>
+  <si>
+    <t>Calliarthron tuberculosum</t>
+  </si>
+  <si>
+    <t>Tokidadendron bullatum</t>
+  </si>
+  <si>
+    <t>Unknown crust</t>
+  </si>
+  <si>
+    <t>Salishia firma</t>
+  </si>
+  <si>
     <t>Ahnfeltia fastigiata</t>
   </si>
   <si>
-    <t>Alaria marginata</t>
-  </si>
-  <si>
-    <t>Analipus japonicus</t>
-  </si>
-  <si>
-    <t>Anemone</t>
+    <t>Chiharaea silvae</t>
+  </si>
+  <si>
+    <t>Cumathamnion decipiens</t>
+  </si>
+  <si>
+    <t>Lomentaria hakodatensis</t>
+  </si>
+  <si>
+    <t>Mazzaella parksii</t>
+  </si>
+  <si>
+    <t>Melanosiphon intestinalis</t>
+  </si>
+  <si>
+    <t>Pollicipes polymerus</t>
+  </si>
+  <si>
+    <t>Colpomenia peregrina</t>
+  </si>
+  <si>
+    <t>Desmarestia ligulata</t>
+  </si>
+  <si>
+    <t>Laminaria setchellii</t>
+  </si>
+  <si>
+    <t>Chiharaea rhododactyla</t>
+  </si>
+  <si>
+    <t>Smithora naiadum</t>
   </si>
   <si>
     <t>Antithamnion defectum</t>
   </si>
   <si>
-    <t>Antithamnionella pacifica</t>
-  </si>
-  <si>
-    <t>Bangia sp.</t>
-  </si>
-  <si>
-    <t>Bryozoan</t>
-  </si>
-  <si>
-    <t>Calliarthron tuberculosum</t>
-  </si>
-  <si>
-    <t>Callithamnion pikeanum</t>
-  </si>
-  <si>
-    <t>Callophyllis sp.</t>
-  </si>
-  <si>
-    <t>Ceramium codicola</t>
-  </si>
-  <si>
-    <t>Ceramium pacificum</t>
+    <t>Johansenia macmillanii</t>
+  </si>
+  <si>
+    <t>Erythrotrichia carnea</t>
+  </si>
+  <si>
+    <t>Nereocystis luetkeana</t>
+  </si>
+  <si>
+    <t>Pylaiella littoralis</t>
+  </si>
+  <si>
+    <t>Collinsiella tuberculata</t>
+  </si>
+  <si>
+    <t>Hydroid</t>
+  </si>
+  <si>
+    <t>Neorhodomela oregona</t>
+  </si>
+  <si>
+    <t>Rhodochorton purpureum</t>
+  </si>
+  <si>
+    <t>Cladophora sericea</t>
+  </si>
+  <si>
+    <t>Laminaria yezoensis</t>
+  </si>
+  <si>
+    <t>Rhizoclonium tortuosum</t>
+  </si>
+  <si>
+    <t>Desmarestia aculeata</t>
+  </si>
+  <si>
+    <t>Herposiphonia plumula</t>
+  </si>
+  <si>
+    <t>Lithothamnion glaciale</t>
+  </si>
+  <si>
+    <t>Opuntiella californica</t>
+  </si>
+  <si>
+    <t>Soranthera ulvoidea</t>
+  </si>
+  <si>
+    <t>Sphacelaria rigidula</t>
   </si>
   <si>
     <t>Chaetomorpha cannabina</t>
   </si>
   <si>
-    <t>Chamberlainium tumidum</t>
+    <t>Monostroma grevillei</t>
+  </si>
+  <si>
+    <t>Neorhodomela aculeata</t>
+  </si>
+  <si>
+    <t>Plocamium pacificum</t>
+  </si>
+  <si>
+    <t>Pterocladiella caloglossoides</t>
+  </si>
+  <si>
+    <t>Mesophyllum vancouveriense</t>
+  </si>
+  <si>
+    <t>Pterygophora californica</t>
+  </si>
+  <si>
+    <t>Symphyocladiella dendroidea</t>
   </si>
   <si>
     <t>Chiharaea bodegensis</t>
   </si>
   <si>
-    <t>Chiharaea rhododactyla</t>
-  </si>
-  <si>
-    <t>Chiharaea silvae</t>
-  </si>
-  <si>
-    <t>Cladophora columbiana</t>
-  </si>
-  <si>
-    <t>Cladophora sericea</t>
-  </si>
-  <si>
-    <t>Codium fragile</t>
-  </si>
-  <si>
-    <t>Codium setchellii</t>
-  </si>
-  <si>
-    <t>Collinsiella tuberculata</t>
-  </si>
-  <si>
-    <t>Colpomenia bullosa</t>
-  </si>
-  <si>
-    <t>Colpomenia peregrina</t>
-  </si>
-  <si>
-    <t>coralline crust</t>
-  </si>
-  <si>
-    <t>Costaria costata</t>
-  </si>
-  <si>
-    <t>Crusticorallina muricata</t>
-  </si>
-  <si>
-    <t>Cryptosiphonia woodii</t>
-  </si>
-  <si>
-    <t>Cumathamnion decipiens</t>
-  </si>
-  <si>
-    <t>Dactylosiphon bullosus</t>
-  </si>
-  <si>
-    <t>Desmarestia aculeata</t>
-  </si>
-  <si>
     <t>Desmarestia herbacea</t>
   </si>
   <si>
-    <t>Desmarestia ligulata</t>
-  </si>
-  <si>
-    <t>Dilsea californica</t>
-  </si>
-  <si>
-    <t>Ectocarpus commensalis</t>
-  </si>
-  <si>
     <t>Ectocarpus siliculosus</t>
   </si>
   <si>
-    <t>Ectocarpus sp.</t>
-  </si>
-  <si>
-    <t>Egregia menziesii</t>
-  </si>
-  <si>
-    <t>Elachista fucicola</t>
-  </si>
-  <si>
-    <t>Endocladia muricata</t>
-  </si>
-  <si>
-    <t>Erythrotrichia carnea</t>
-  </si>
-  <si>
-    <t>Farlowia mollis</t>
-  </si>
-  <si>
-    <t>Fauchea sp.</t>
-  </si>
-  <si>
-    <t>Fucus distichus</t>
-  </si>
-  <si>
-    <t>Gloiopeltis furcata</t>
-  </si>
-  <si>
-    <t>Halosaccion glandiforme</t>
-  </si>
-  <si>
-    <t>Hedophyllum nigripes</t>
-  </si>
-  <si>
-    <t>Hedophyllum sessile</t>
-  </si>
-  <si>
-    <t>Herposiphonia plumula</t>
-  </si>
-  <si>
-    <t>Hydroid</t>
-  </si>
-  <si>
-    <t>Hymenena</t>
-  </si>
-  <si>
-    <t>Johansenia macmillanii</t>
-  </si>
-  <si>
     <t>Kornmannia leptoderma</t>
   </si>
   <si>
-    <t>Laminaria setchellii</t>
-  </si>
-  <si>
-    <t>Laminaria yezoensis</t>
-  </si>
-  <si>
-    <t>Leathesia marina</t>
-  </si>
-  <si>
-    <t>Lithophyllum</t>
-  </si>
-  <si>
-    <t>Lithothamnion glaciale</t>
-  </si>
-  <si>
-    <t>Lithothamnion phymatodeum</t>
-  </si>
-  <si>
-    <t>Lomentaria hakodatensis</t>
-  </si>
-  <si>
-    <t>Mastocarpus</t>
-  </si>
-  <si>
-    <t>Mazzaella oregona</t>
-  </si>
-  <si>
-    <t>Mazzaella parksii</t>
-  </si>
-  <si>
-    <t>Mazzaella parvula</t>
-  </si>
-  <si>
-    <t>Mazzaella splendens</t>
-  </si>
-  <si>
-    <t>Melanosiphon intestinalis</t>
-  </si>
-  <si>
-    <t>Melobesia sp.</t>
-  </si>
-  <si>
-    <t>Mesophyllum vancouveriense</t>
-  </si>
-  <si>
-    <t>Microcladia borealis</t>
-  </si>
-  <si>
-    <t>Monostroma grevillei</t>
-  </si>
-  <si>
-    <t>Nemalion helminthoides</t>
-  </si>
-  <si>
-    <t>Neogastroclonium subarticulatum</t>
-  </si>
-  <si>
-    <t>Neopolyporolithon reclinatum</t>
-  </si>
-  <si>
-    <t>Neorhodomela aculeata</t>
-  </si>
-  <si>
-    <t>Neorhodomela larix</t>
-  </si>
-  <si>
-    <t>Neorhodomela oregona</t>
-  </si>
-  <si>
-    <t>Nereocystis luetkeana</t>
-  </si>
-  <si>
-    <t>Odonthalia floccosa</t>
-  </si>
-  <si>
-    <t>Odonthalia floccosa f. comosa</t>
-  </si>
-  <si>
-    <t>Opuntiella californica</t>
-  </si>
-  <si>
-    <t>Osmundea spectabilis</t>
-  </si>
-  <si>
-    <t>Palmaria hecatensis</t>
-  </si>
-  <si>
-    <t>Palmaria mollis</t>
-  </si>
-  <si>
     <t>Petalonia fascia</t>
   </si>
   <si>
-    <t>Peyssonnelia sp.</t>
-  </si>
-  <si>
-    <t>Phycodrys sp.</t>
-  </si>
-  <si>
-    <t>Phyllospadix sp.</t>
-  </si>
-  <si>
-    <t>Plocamium pacificum</t>
-  </si>
-  <si>
-    <t>Plocamium violaceum</t>
-  </si>
-  <si>
-    <t>Pododesmus sp.</t>
-  </si>
-  <si>
-    <t>Pollicipes polymerus</t>
-  </si>
-  <si>
-    <t>Polyneura latissima</t>
-  </si>
-  <si>
-    <t>Pterocladiella caloglossoides</t>
-  </si>
-  <si>
-    <t>Pterygophora californica</t>
-  </si>
-  <si>
-    <t>Pugetia firma</t>
-  </si>
-  <si>
-    <t>Pylaiella littoralis</t>
-  </si>
-  <si>
-    <t>Ralfsioid</t>
-  </si>
-  <si>
-    <t>Rhizoclonium tortuosum</t>
-  </si>
-  <si>
-    <t>Rhodochorton purpureum</t>
-  </si>
-  <si>
-    <t>Rhodymenia sp.</t>
-  </si>
-  <si>
-    <t>Salishia firma</t>
-  </si>
-  <si>
-    <t>Savoiea robusta</t>
-  </si>
-  <si>
-    <t>Schizymenia pacifica</t>
-  </si>
-  <si>
-    <t>Scytosiphon dotyi</t>
-  </si>
-  <si>
-    <t>Scytosiphon lomentaria</t>
-  </si>
-  <si>
-    <t>Smithora naiadum</t>
-  </si>
-  <si>
-    <t>Soranthera ulvoidea</t>
-  </si>
-  <si>
-    <t>Sphacelaria rigidula</t>
-  </si>
-  <si>
-    <t>Styela sp.</t>
-  </si>
-  <si>
-    <t>Symphyocladiella dendroidea</t>
-  </si>
-  <si>
     <t>Tiffaniella snyderae</t>
   </si>
   <si>
-    <t>Tokidadendron bullatum</t>
-  </si>
-  <si>
-    <t>Tube worms</t>
-  </si>
-  <si>
-    <t>Tunicata/Porifera</t>
-  </si>
-  <si>
-    <t>Ulothrix-Urospora sp.</t>
-  </si>
-  <si>
-    <t>Unknown crust</t>
-  </si>
-  <si>
-    <t>turf</t>
-  </si>
-  <si>
-    <t>crust</t>
-  </si>
-  <si>
-    <t>blade</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>canopy</t>
+  </si>
+  <si>
+    <t>trophic position</t>
+  </si>
+  <si>
+    <t>functional group</t>
+  </si>
+  <si>
+    <t>producer</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>HMSC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hildenbrandia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>spp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mastocarpus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>spp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mastocarpus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>spp. (crustose “Petrocelis” phase)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pyropia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>spp.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Barnacles**</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corallina </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>spp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ulva </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>spp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">articulate </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bossiella </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>spp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Acrosiphonia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hymenena</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Phyllospadix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mytilus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>spp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Antithamnionella</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Melobesia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Peyssonnelia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prionitis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Blidingia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Bangia"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pododesmus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Callophyllis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Styela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
   </si>
   <si>
     <t>animal</t>
   </si>
   <si>
-    <t>producer</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>canopy</t>
+    <r>
+      <t xml:space="preserve">Odonthalia floccosa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> comosa</t>
+    </r>
+  </si>
+  <si>
+    <t>Ceramium "codicola"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ectocarpus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fauchea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Phycodrys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rhodymenia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Urospora</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
   </si>
   <si>
     <t>thin turf</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>trophic position</t>
-  </si>
-  <si>
-    <t>functional group</t>
-  </si>
-  <si>
-    <t>HMSC</t>
-  </si>
-  <si>
-    <t>Bossiella crust</t>
-  </si>
-  <si>
-    <t>Hildenbrandia spp.</t>
-  </si>
-  <si>
-    <t>Pyropia spp.</t>
-  </si>
-  <si>
-    <t>Mastocarpus spp. (Petrocelis-phase)</t>
-  </si>
-  <si>
-    <t>Barnacles (Balanus + Chthamalus + Semibalanus)</t>
-  </si>
-  <si>
-    <t>Corallina spp.</t>
-  </si>
-  <si>
-    <t>Ulva spp.</t>
-  </si>
-  <si>
-    <t>Bossiella articulate</t>
-  </si>
-  <si>
-    <t>Acrosiphonia spp.</t>
-  </si>
-  <si>
-    <t>Ptilota spp.</t>
-  </si>
-  <si>
-    <t>Mytilus spp.</t>
-  </si>
-  <si>
-    <t>Polysiphonia spp.</t>
-  </si>
-  <si>
-    <t>Prionitis spp.</t>
-  </si>
-  <si>
-    <t>Blidingia sp.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,8 +782,129 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -484,13 +913,218 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -500,17 +1134,124 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,18 +1264,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -845,38 +1674,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA46901F-DEDB-4D8B-B417-82097C9BD543}">
-  <dimension ref="A1:F132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection sqref="A1:F132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.81640625" customWidth="1"/>
+    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>128</v>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -886,17 +1715,17 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
+      <c r="C2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -906,17 +1735,17 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -926,17 +1755,17 @@
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
+      <c r="C4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -946,17 +1775,17 @@
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
+      <c r="C5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -966,17 +1795,17 @@
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
+      <c r="C6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -987,16 +1816,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1006,17 +1835,17 @@
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
+      <c r="C8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1026,17 +1855,17 @@
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1046,17 +1875,17 @@
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1066,17 +1895,17 @@
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
+      <c r="C11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1086,17 +1915,17 @@
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1106,17 +1935,17 @@
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
+      <c r="C13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1126,17 +1955,17 @@
       <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1146,17 +1975,17 @@
       <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
+      <c r="C15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1167,16 +1996,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1187,16 +2016,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1206,17 +2035,17 @@
       <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1226,17 +2055,17 @@
       <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1246,17 +2075,17 @@
       <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1266,17 +2095,17 @@
       <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1286,17 +2115,17 @@
       <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1306,17 +2135,17 @@
       <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1326,17 +2155,17 @@
       <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
+      <c r="C24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1346,17 +2175,17 @@
       <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
+      <c r="C25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1366,17 +2195,17 @@
       <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
+      <c r="C26" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1386,17 +2215,17 @@
       <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
+      <c r="C27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1406,17 +2235,17 @@
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1426,17 +2255,17 @@
       <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1446,17 +2275,17 @@
       <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
+      <c r="C30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1466,17 +2295,17 @@
       <c r="B31" s="2">
         <v>29</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
+      <c r="C31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1486,17 +2315,17 @@
       <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
+      <c r="C32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1506,17 +2335,17 @@
       <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
+      <c r="C33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1526,17 +2355,17 @@
       <c r="B34" s="2">
         <v>33</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
+      <c r="C34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1546,17 +2375,17 @@
       <c r="B35" s="2">
         <v>34</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
+      <c r="C35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1566,17 +2395,17 @@
       <c r="B36" s="2">
         <v>34</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
+      <c r="C36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1586,17 +2415,17 @@
       <c r="B37" s="2">
         <v>34</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
+      <c r="C37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1606,17 +2435,17 @@
       <c r="B38" s="2">
         <v>37</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
+      <c r="C38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1626,17 +2455,17 @@
       <c r="B39" s="2">
         <v>38</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
+      <c r="C39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1646,37 +2475,37 @@
       <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
+      <c r="C40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
+      <c r="C41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1684,19 +2513,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>40</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1706,17 +2535,17 @@
       <c r="B43" s="2">
         <v>42</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
+      <c r="C43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1726,17 +2555,17 @@
       <c r="B44" s="2">
         <v>43</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
+      <c r="C44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1746,17 +2575,17 @@
       <c r="B45" s="2">
         <v>44</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
+      <c r="C45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1766,17 +2595,17 @@
       <c r="B46" s="2">
         <v>45</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
+      <c r="C46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1786,17 +2615,17 @@
       <c r="B47" s="2">
         <v>46</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
+      <c r="C47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1806,17 +2635,17 @@
       <c r="B48" s="2">
         <v>47</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
+      <c r="C48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1826,17 +2655,17 @@
       <c r="B49" s="2">
         <v>48</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
+      <c r="C49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1846,17 +2675,17 @@
       <c r="B50" s="2">
         <v>49</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0</v>
+      <c r="C50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1864,19 +2693,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1884,19 +2713,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>50</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -1907,16 +2736,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -1924,19 +2753,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>53</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -1944,19 +2773,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -1964,19 +2793,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>54</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -1984,19 +2813,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>54</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -2004,19 +2833,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>57</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -2026,17 +2855,17 @@
       <c r="B59" s="2">
         <v>58</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0</v>
+      <c r="C59" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -2046,17 +2875,17 @@
       <c r="B60" s="2">
         <v>58</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="2">
-        <v>0</v>
+      <c r="C60" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -2064,19 +2893,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>60</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="2">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -2084,19 +2913,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>60</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="2">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -2104,19 +2933,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>60</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="2">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -2124,19 +2953,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>63</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="2">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -2146,17 +2975,17 @@
       <c r="B65" s="2">
         <v>64</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="2">
-        <v>0</v>
+      <c r="C65" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -2166,17 +2995,17 @@
       <c r="B66" s="2">
         <v>64</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="2">
-        <v>0</v>
+      <c r="C66" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -2184,19 +3013,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>64</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -2206,17 +3035,17 @@
       <c r="B68" s="2">
         <v>67</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0</v>
+      <c r="C68" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -2227,16 +3056,16 @@
         <v>68</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -2244,19 +3073,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>68</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -2266,17 +3095,17 @@
       <c r="B71" s="2">
         <v>70</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" s="2">
-        <v>0</v>
+      <c r="C71" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -2284,19 +3113,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>71</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -2304,19 +3133,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>72</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -2324,19 +3153,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>73</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -2344,19 +3173,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>73</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="2">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -2364,19 +3193,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>73</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -2384,19 +3213,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>73</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -2404,19 +3233,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>73</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -2424,19 +3253,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>73</v>
-      </c>
-      <c r="C79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D79" s="2">
-        <v>0</v>
+      <c r="D79" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -2444,19 +3273,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>73</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -2466,17 +3295,17 @@
       <c r="B81" s="2">
         <v>80</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0</v>
+      <c r="C81" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -2484,19 +3313,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>80</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -2504,19 +3333,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>80</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D83" s="2">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -2524,19 +3353,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>83</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -2546,17 +3375,17 @@
       <c r="B85" s="2">
         <v>84</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
+      <c r="C85" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -2566,17 +3395,17 @@
       <c r="B86" s="2">
         <v>84</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0</v>
+      <c r="C86" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -2584,19 +3413,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>84</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -2604,19 +3433,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>87</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -2624,19 +3453,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>87</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -2646,17 +3475,17 @@
       <c r="B90" s="2">
         <v>89</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
+      <c r="C90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -2667,16 +3496,16 @@
         <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -2686,17 +3515,17 @@
       <c r="B92" s="2">
         <v>89</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0</v>
+      <c r="C92" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -2704,19 +3533,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>92</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -2724,19 +3553,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>92</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -2744,19 +3573,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>92</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -2764,19 +3593,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>92</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D96" s="2">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -2784,19 +3613,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>96</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -2804,19 +3633,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>96</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -2824,19 +3653,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>96</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="2">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -2844,19 +3673,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>96</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -2864,19 +3693,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>100</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -2884,19 +3713,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>100</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D102" s="2">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -2904,19 +3733,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>100</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -2924,19 +3753,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>100</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D104" s="2">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -2944,19 +3773,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>100</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D105" s="2">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -2964,19 +3793,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>100</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D106" s="2">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -2984,19 +3813,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>100</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D107" s="2">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -3004,19 +3833,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>107</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="2">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -3024,19 +3853,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>107</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="2">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -3044,19 +3873,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>107</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D110" s="2">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -3064,19 +3893,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>107</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D111" s="2">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -3084,19 +3913,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>107</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D112" s="2">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -3104,19 +3933,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>107</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D113" s="2">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -3124,19 +3953,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>107</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D114" s="2">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -3144,19 +3973,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>107</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D115" s="2">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -3164,19 +3993,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>115</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -3184,19 +4013,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>115</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D117" s="2">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -3204,19 +4033,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>115</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D118" s="2">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -3224,19 +4053,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>115</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D119" s="2">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
@@ -3244,39 +4073,39 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>115</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D120" s="2">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" s="2">
-        <v>120</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D121" s="2">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F121" s="2" t="s">
+      <c r="B121" s="3">
         <v>118</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -3284,19 +4113,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>120</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D122" s="2">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -3304,19 +4133,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>120</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D123" s="2">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -3324,19 +4153,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>120</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D124" s="2">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -3344,19 +4173,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>120</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D125" s="2">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -3364,143 +4193,43 @@
         <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>120</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D126" s="2">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>126</v>
       </c>
-      <c r="B127" s="2">
-        <v>120</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D127" s="2">
-        <v>0</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F127" s="2" t="s">
+      <c r="B127" s="4">
         <v>118</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="2">
-        <v>127</v>
-      </c>
-      <c r="B128" s="2">
-        <v>120</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D128" s="2">
-        <v>0</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="2">
-        <v>128</v>
-      </c>
-      <c r="B129" s="2">
-        <v>120</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D129" s="2">
-        <v>0</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="2">
-        <v>129</v>
-      </c>
-      <c r="B130" s="2">
-        <v>120</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D130" s="2">
-        <v>0</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="2">
-        <v>130</v>
-      </c>
-      <c r="B131" s="2">
-        <v>120</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D131" s="2">
-        <v>0</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="2">
-        <v>131</v>
-      </c>
-      <c r="B132" s="4">
-        <v>120</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D132" s="4">
-        <v>0</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>125</v>
+      <c r="C127" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>